--- a/Project_Docs/Coursera_TestCases.xlsx
+++ b/Project_Docs/Coursera_TestCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2417950_cognizant_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{783A1D1B-EE5D-431D-AB44-DF9B09AB6E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{783A1D1B-EE5D-431D-AB44-DF9B09AB6E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0EFA964-E957-4281-9F1D-23154F8EC810}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="70" windowWidth="16270" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -64,33 +64,9 @@
     <t>TC_CR_003</t>
   </si>
   <si>
-    <t>TC_CR_004</t>
-  </si>
-  <si>
-    <t>TC_CR_005</t>
-  </si>
-  <si>
-    <t>TC_CR_006</t>
-  </si>
-  <si>
-    <t>TC_CR_007</t>
-  </si>
-  <si>
     <t>Validate 'Ready to transform your campus?' form with invalid email</t>
   </si>
   <si>
-    <t>Validate form submission with empty fields</t>
-  </si>
-  <si>
-    <t>Validate Facebook icon opens new window</t>
-  </si>
-  <si>
-    <t>Validate Join for Free button without credentials</t>
-  </si>
-  <si>
-    <t>Validate Login button without credentials</t>
-  </si>
-  <si>
     <t>Search and display beginner-level web development courses</t>
   </si>
   <si>
@@ -98,18 +74,6 @@
   </si>
   <si>
     <t>Submit form with invalid email and verify error message</t>
-  </si>
-  <si>
-    <t>Submit 'Ready to transform your campus?' form without data</t>
-  </si>
-  <si>
-    <t>Click Facebook icon and verify new window opens</t>
-  </si>
-  <si>
-    <t>Click Join for Free without entering credentials</t>
-  </si>
-  <si>
-    <t>Click Login without entering credentials</t>
   </si>
   <si>
     <t>Search Web Development courses and extract details</t>
@@ -122,23 +86,6 @@
 2. Click 'For Enterprise'
 3. Enter invalid email in form
 4. Click Submit</t>
-  </si>
-  <si>
-    <t>1. Scroll to bottom
-2. Click 'For Enterprise'
-3. Click Submit without entering data</t>
-  </si>
-  <si>
-    <t>1. Scroll to bottom
-2. Click Facebook icon</t>
-  </si>
-  <si>
-    <t>1. Click 'Join for Free'
-2. Click Submit without entering credentials</t>
-  </si>
-  <si>
-    <t>1. Click 'Login'
-2. Click Submit without entering credentials</t>
   </si>
   <si>
     <t>1. Enter 'Language Learning' in search
@@ -151,9 +98,6 @@
     <t>Email: invalid-email</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Search: Web Development, Filters: Beginner, English</t>
   </si>
   <si>
@@ -163,12 +107,6 @@
     <t>Error message displayed for invalid email</t>
   </si>
   <si>
-    <t>Error message displayed for required fields</t>
-  </si>
-  <si>
-    <t>New window opens with Coursera Facebook page</t>
-  </si>
-  <si>
     <t>First two courses displayed with name, hours, rating</t>
   </si>
   <si>
@@ -176,9 +114,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>Medium</t>
   </si>
   <si>
     <t>Open the Application (https://coursera.com) in any Browser</t>
@@ -190,6 +125,18 @@
 4. Apply filters: Beginner level and English language
 5. Sort results by “Best Match”
 6. Extract and display name, total learning hours, and rating of the first two courses</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Worked as expected</t>
+  </si>
+  <si>
+    <t>First two courses displayed as expected</t>
+  </si>
+  <si>
+    <t>Displayed Languages and levels with course counts</t>
   </si>
 </sst>
 </file>
@@ -266,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -294,10 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -607,28 +551,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -668,203 +612,105 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="10"/>
       <c r="I3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="2"/>
       <c r="I4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
